--- a/media/Levels/Stage10/UpWallMap.xlsx
+++ b/media/Levels/Stage10/UpWallMap.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yuuta\OneDrive - 学校法人新潟総合学院 学校法人国際総合学園 学校法人大彦学園\ドキュメント\2024年３月特別授業\BaseCross64\LoadOut\media\Levels\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\erima\desktop\授業で手に入れたItems\2年後期製作\newwww\media\Levels\Stage10\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DB5639D-D462-4B6F-9029-1F94A9DA169D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCE96C8D-BC1C-40B0-B017-622A1DA07A0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{75A79129-5593-4F02-8575-F4D7F19541D0}"/>
+    <workbookView xWindow="3096" yWindow="1704" windowWidth="17280" windowHeight="8880" xr2:uid="{75A79129-5593-4F02-8575-F4D7F19541D0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -425,8 +425,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{159AE2E0-0F10-440F-AB34-6051D71D5293}">
   <dimension ref="A1:T21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21:T21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -873,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="C8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" s="1">
         <v>1</v>
@@ -1059,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -1245,7 +1245,7 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14">
         <v>0</v>

--- a/media/Levels/Stage10/UpWallMap.xlsx
+++ b/media/Levels/Stage10/UpWallMap.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\erima\desktop\授業で手に入れたItems\2年後期製作\newwww\media\Levels\Stage10\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\erima\Desktop\授業で手に入れたItems\2年後期製作\newwww\media\Levels\Stage10\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCE96C8D-BC1C-40B0-B017-622A1DA07A0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A39B66A6-CFCE-47AC-A9AA-E4B1AEC42559}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3096" yWindow="1704" windowWidth="17280" windowHeight="8880" xr2:uid="{75A79129-5593-4F02-8575-F4D7F19541D0}"/>
   </bookViews>
@@ -425,8 +425,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{159AE2E0-0F10-440F-AB34-6051D71D5293}">
   <dimension ref="A1:T21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="H8" workbookViewId="0">
+      <selection activeCell="T10" sqref="T10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1048,7 +1048,7 @@
         <v>1</v>
       </c>
       <c r="T10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.45">
